--- a/Format.xlsx
+++ b/Format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohashi\Desktop\workspace\MemoInserter20190708\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A3EE9-F488-4325-BAB8-57985360560C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7BB2E8-F69E-4425-B1BF-37FFDAE0C1A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33915" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{E3A01D36-92F2-46C6-BFB4-57AA2C4A6B03}"/>
+    <workbookView xWindow="30420" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{E3A01D36-92F2-46C6-BFB4-57AA2C4A6B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>outward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(SERIAL_NUMBER)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6CA6B5-896B-4EF2-9ED0-0B5AAC2F55C3}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -481,9 +485,10 @@
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +525,11 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43640</v>
       </c>
@@ -555,6 +563,12 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
